--- a/分享支持.xlsx
+++ b/分享支持.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/march/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/march/AndroidPro/babyphoto_app/SocialSdk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -591,13 +591,13 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>

--- a/分享支持.xlsx
+++ b/分享支持.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/march/AndroidPro/babyphoto_app/SocialSdk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/march/AndroidPro/babyphoto_app/socialsdk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Gif/要求能动</t>
     <rPh sb="4" eb="5">
@@ -241,6 +241,27 @@
   </si>
   <si>
     <t>Y(openApi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序</t>
+    <rPh sb="0" eb="1">
+      <t>xiao cheng xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <rPh sb="0" eb="1">
+      <t>xiao cheng xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y(web)</t>
+    <rPh sb="0" eb="1">
+      <t>xiao cheng xu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
@@ -608,7 +629,7 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -636,8 +657,11 @@
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -665,8 +689,11 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -694,8 +721,11 @@
       <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -723,8 +753,11 @@
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -752,8 +785,11 @@
       <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -781,8 +817,11 @@
       <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -809,6 +848,9 @@
       </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
